--- a/testings/vals.xlsx
+++ b/testings/vals.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/partha/Desktop/research/analyse/testings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C10F34-62B3-A346-BEED-63E7B62A63BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C9E82F-46CA-884F-A1B5-919EE573E5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="660" windowWidth="25440" windowHeight="15320" xr2:uid="{0DC8389A-A251-FF42-8BF0-44ABE721F026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Error</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Element</t>
   </si>
@@ -84,6 +81,36 @@
   </si>
   <si>
     <t>LiCoO2</t>
+  </si>
+  <si>
+    <t>Cation Radii</t>
+  </si>
+  <si>
+    <t>Anion Radii</t>
+  </si>
+  <si>
+    <t>exponent</t>
+  </si>
+  <si>
+    <t>k2(ra+rb)-1</t>
+  </si>
+  <si>
+    <t>1/exp</t>
+  </si>
+  <si>
+    <t>rate dcn/dr</t>
+  </si>
+  <si>
+    <t>partial diff</t>
+  </si>
+  <si>
+    <t>Error %</t>
+  </si>
+  <si>
+    <t>Cation To anion ratio</t>
+  </si>
+  <si>
+    <t>1/ratio</t>
   </si>
 </sst>
 </file>
@@ -126,9 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,135 +491,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C350743-9470-124E-87F9-0F6BBBB48548}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>14.1333081544695</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>133</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2">
+        <f>4/3*(C2+D2) -1</f>
+        <v>219</v>
+      </c>
+      <c r="F2">
+        <f>EXP(-16*E2/10000)</f>
+        <v>0.70440627085035723</v>
+      </c>
+      <c r="G2">
+        <f>1/(1+F2)</f>
+        <v>0.58671457451343623</v>
+      </c>
+      <c r="H2">
+        <f>(C2+D2)*(F2)/G2/G2</f>
+        <v>337.63962133169747</v>
+      </c>
+      <c r="J2">
+        <f>C2/D2</f>
+        <v>4.15625</v>
+      </c>
+      <c r="K2">
+        <f>1/J2</f>
+        <v>0.24060150375939848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>14.081369567351899</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>155</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E15" si="0">4/3*(C3+D3) -1</f>
+        <v>248.33333333333331</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F15" si="1">EXP(-16*E3/10000)</f>
+        <v>0.67210995163852016</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="2">1/(1+F3)</f>
+        <v>0.59804679651603543</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H15" si="3">(C3+D3)*(F3)/G3/G3</f>
+        <v>351.40796065928788</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J15" si="4">C3/D3</f>
+        <v>4.84375</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K15" si="5">1/J3</f>
+        <v>0.20645161290322581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>14.0342650541624</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>196</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.61582034851840284</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.61888068244525563</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>366.58528513420021</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>6.125</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>0.16326530612244897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>12.926169405830899</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>210</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>321.66666666666663</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.59769979468127632</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.62589981129683325</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>369.22307200901969</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>6.5625</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>0.15238095238095239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>12.272121988786299</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>232</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.57029586010446909</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.63682266852150504</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>371.2505598807877</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>7.25</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>3.2307394725668899</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>232</v>
+      </c>
+      <c r="D7">
+        <v>99</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>440.33333333333331</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.49433921206876519</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.66919210305376287</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>365.38561051429383</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>2.3434343434343434</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>0.42672413793103448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>5.1213003949812803</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>133</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>308.33333333333331</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.61058770590527389</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.62089136551425694</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>367.45554029870476</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>1.3434343434343434</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>0.74436090225563911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3.5739198265668399</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>112</v>
+      </c>
+      <c r="D9">
+        <v>133</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>325.66666666666663</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.59388673081493759</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.62739715480830338</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>369.64481315641706</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>1.1875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>4.7158873337262301</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>133</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>261.66666666666663</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.65792346654275513</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.60316415092747688</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>356.2628685417418</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>2.078125</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>0.48120300751879697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2.4999756097617198</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>103</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>293.66666666666663</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.62508560747429454</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.61535219769387928</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>364.82472278079479</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>1.145631067961165</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>0.8728813559322034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1.80529405941695</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>111</v>
+      </c>
+      <c r="D12">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.6910106796357246</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0.5913623207958798</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>343.81649495941571</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>1.7619047619047619</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>0.56756756756756754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1.0962954293463401</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>140</v>
+      </c>
+      <c r="D13">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.59642606091837858</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.62639919535310551</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>369.36905049086914</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>1.3592233009708738</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>0.73571428571428565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>5.5602462044519703</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f>(133+111)/2</f>
+        <v>122</v>
+      </c>
+      <c r="D14">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>245.66666666666666</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.67498374716965803</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0.59702071837399784</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>350.33718712564354</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>1.9365079365079365</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0.51639344262295084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>3.4399161501869</v>
       </c>
+      <c r="C15">
+        <f>(133+140)/2</f>
+        <v>136.5</v>
+      </c>
+      <c r="D15">
+        <v>103</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>318.33333333333331</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.60089604267126184</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0.62465017924049326</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>368.83414882929532</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>1.325242718446602</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>0.75457875457875456</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/testings/vals.xlsx
+++ b/testings/vals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/partha/Desktop/research/analyse/testings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C9E82F-46CA-884F-A1B5-919EE573E5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B704E0C-4C20-6C41-9C26-83CE962569F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="660" windowWidth="25440" windowHeight="15320" xr2:uid="{0DC8389A-A251-FF42-8BF0-44ABE721F026}"/>
   </bookViews>
@@ -107,10 +107,10 @@
     <t>Error %</t>
   </si>
   <si>
-    <t>Cation To anion ratio</t>
-  </si>
-  <si>
     <t>1/ratio</t>
+  </si>
+  <si>
+    <t>anion to cation</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,10 +535,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
